--- a/www/odmap_dict.xlsx
+++ b/www/odmap_dict.xlsx
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="267">
   <si>
     <t>section</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>Conceptual description of modelling steps including model fitting, assessment and prediction</t>
-  </si>
-  <si>
-    <t>prediction$transfer</t>
   </si>
   <si>
     <t>extrapolation</t>
@@ -1207,6 +1204,18 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>model$resampling</t>
+  </si>
+  <si>
+    <t>resamplingRule,notes</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>prediction$transfer$environment1</t>
   </si>
 </sst>
 </file>
@@ -1771,28 +1780,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2117,9 +2126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2140,7 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="57.140625" customWidth="1"/>
+    <col min="8" max="8" width="80.140625" customWidth="1"/>
     <col min="9" max="12" width="4.28515625" customWidth="1"/>
     <col min="13" max="13" width="35.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="24.28515625" style="7" customWidth="1"/>
@@ -2141,7 +2150,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2204,7 +2213,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>165</v>
@@ -2253,10 +2262,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>167</v>
@@ -2284,7 +2293,7 @@
         <v>166</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>21</v>
@@ -2305,13 +2314,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2336,7 +2345,7 @@
         <v>166</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>21</v>
@@ -2492,7 +2501,7 @@
         <v>19</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>153</v>
@@ -2516,7 +2525,7 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -2630,7 +2639,7 @@
         <v>o_software_1</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2645,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>21</v>
@@ -2697,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>21</v>
@@ -2721,20 +2730,20 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
         <v>d_scale_1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -2773,20 +2782,20 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
         <v>d_scale_2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -2825,20 +2834,20 @@
         <v>54</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>d_scale_3</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -2877,20 +2886,20 @@
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>d_scale_4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2929,20 +2938,20 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>d_scale_5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2981,10 +2990,10 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -3012,7 +3021,7 @@
         <v>55</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>21</v>
@@ -3033,10 +3042,10 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
         <v>27</v>
@@ -3046,7 +3055,7 @@
         <v>d_bio_2</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3085,10 +3094,10 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -3119,7 +3128,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7">
         <v>1</v>
@@ -3137,10 +3146,10 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
         <v>28</v>
@@ -3150,7 +3159,7 @@
         <v>d_bio_4</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3189,10 +3198,10 @@
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
@@ -3220,7 +3229,7 @@
         <v>55</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>21</v>
@@ -3241,10 +3250,10 @@
         <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>29</v>
@@ -3254,7 +3263,7 @@
         <v>d_bio_6</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -3293,10 +3302,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>32</v>
@@ -3306,7 +3315,7 @@
         <v>d_bio_7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -3345,10 +3354,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>33</v>
@@ -3358,7 +3367,7 @@
         <v>d_bio_8</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -3395,20 +3404,20 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
         <v>d_bio_9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -3447,20 +3456,20 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
         <v>d_bio_10</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
@@ -3499,20 +3508,20 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
         <v>d_bio_11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -3530,7 +3539,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>21</v>
@@ -3551,20 +3560,20 @@
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>d_bio_12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -3603,10 +3612,10 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
         <v>75</v>
@@ -3637,7 +3646,7 @@
         <v>74</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7">
         <v>0</v>
@@ -3655,10 +3664,10 @@
         <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -3688,8 +3697,8 @@
       <c r="N30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="13" t="s">
-        <v>245</v>
+      <c r="O30" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="P30" s="7">
         <v>0</v>
@@ -3707,10 +3716,10 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -3740,8 +3749,8 @@
       <c r="N31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="13" t="s">
-        <v>246</v>
+      <c r="O31" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="P31" s="7">
         <v>0</v>
@@ -3759,10 +3768,10 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>68</v>
@@ -3792,8 +3801,8 @@
       <c r="N32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O32" s="13" t="s">
-        <v>246</v>
+      <c r="O32" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="P32" s="7">
         <v>0</v>
@@ -3811,10 +3820,10 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>71</v>
@@ -3844,8 +3853,8 @@
       <c r="N33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O33" s="13" t="s">
-        <v>216</v>
+      <c r="O33" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="P33" s="7">
         <v>0</v>
@@ -4022,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
@@ -4032,7 +4041,7 @@
         <v>d_pred_1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -4050,7 +4059,7 @@
         <v>87</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>21</v>
@@ -4074,7 +4083,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>28</v>
@@ -4126,17 +4135,17 @@
         <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_3</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -4154,7 +4163,7 @@
         <v>87</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>21</v>
@@ -4178,17 +4187,17 @@
         <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -4206,7 +4215,7 @@
         <v>87</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>21</v>
@@ -4230,17 +4239,17 @@
         <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_5</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -4258,7 +4267,7 @@
         <v>87</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>21</v>
@@ -4282,17 +4291,17 @@
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_6</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -4334,7 +4343,7 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>90</v>
@@ -4386,7 +4395,7 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
         <v>68</v>
@@ -4417,7 +4426,7 @@
         <v>74</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P44" s="7">
         <v>0</v>
@@ -4438,10 +4447,10 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -4490,7 +4499,7 @@
         <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -4520,8 +4529,8 @@
       <c r="N46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O46" s="14" t="s">
-        <v>215</v>
+      <c r="O46" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="P46" s="7">
         <v>1</v>
@@ -4542,17 +4551,17 @@
         <v>93</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
         <v>d_proj_2</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -4570,10 +4579,10 @@
         <v>94</v>
       </c>
       <c r="N47" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>215</v>
       </c>
       <c r="P47" s="8">
         <v>0</v>
@@ -4594,17 +4603,17 @@
         <v>93</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
         <v>d_proj_3</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -4622,10 +4631,10 @@
         <v>94</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="P48" s="8">
         <v>1</v>
@@ -4646,17 +4655,17 @@
         <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
         <v>d_proj_4</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -4674,10 +4683,10 @@
         <v>94</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="P49" s="8">
         <v>0</v>
@@ -4698,17 +4707,17 @@
         <v>93</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
         <v>d_proj_5</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -4750,7 +4759,7 @@
         <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
         <v>95</v>
@@ -4802,7 +4811,7 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
         <v>90</v>
@@ -4854,7 +4863,7 @@
         <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
         <v>98</v>
@@ -4906,7 +4915,7 @@
         <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>43</v>
@@ -4950,17 +4959,17 @@
         <v>107</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="G55" s="5" t="str">
         <f>CONCATENATE(E55, "_", A55)</f>
         <v>m_settings_1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
@@ -4974,10 +4983,10 @@
       <c r="L55" s="5">
         <v>1</v>
       </c>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -4994,17 +5003,17 @@
         <v>107</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G56" s="5" t="str">
         <f>CONCATENATE(E56, "_", A56)</f>
         <v>m_settings_2</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
@@ -5018,14 +5027,18 @@
       <c r="L56" s="5">
         <v>1</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M56" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="N56" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
+      <c r="O56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -5042,7 +5055,7 @@
         <v>107</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>109</v>
@@ -5066,10 +5079,10 @@
       <c r="L57" s="4">
         <v>1</v>
       </c>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -5086,7 +5099,7 @@
         <v>105</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>105</v>
@@ -5110,10 +5123,10 @@
       <c r="L58" s="5">
         <v>1</v>
       </c>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
     </row>
     <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -5154,10 +5167,10 @@
       <c r="L59" s="5">
         <v>1</v>
       </c>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
     </row>
     <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -5184,7 +5197,7 @@
         <v>m_complex_1</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
@@ -5198,10 +5211,10 @@
       <c r="L60" s="5">
         <v>1</v>
       </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -5221,14 +5234,14 @@
         <v>112</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
         <v>m_estim_1</v>
       </c>
       <c r="H61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5261,7 +5274,7 @@
         <v>112</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -5281,6 +5294,18 @@
       </c>
       <c r="L62">
         <v>1</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -5301,14 +5326,14 @@
         <v>112</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
         <v>m_estim_3</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -5321,6 +5346,18 @@
       </c>
       <c r="L63">
         <v>1</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -5348,7 +5385,7 @@
         <v>m_selection_1</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5363,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O64" s="10" t="s">
         <v>21</v>
@@ -5452,7 +5489,7 @@
         <v>m_selection_3</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5467,13 +5504,13 @@
         <v>1</v>
       </c>
       <c r="M66" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N66" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N66" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="O66" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P66" s="10"/>
     </row>
@@ -5673,10 +5710,10 @@
         <v>1</v>
       </c>
       <c r="M70" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N70" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="O70" s="10" t="s">
         <v>21</v>
@@ -5725,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="M71" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N71" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="O71" s="10" t="s">
         <v>153</v>
@@ -5777,10 +5814,10 @@
         <v>1</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O72" s="10" t="s">
         <v>153</v>
@@ -5829,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O73" s="10" t="s">
         <v>153</v>
@@ -5856,7 +5893,7 @@
         <v>164</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>141</v>
@@ -5866,7 +5903,7 @@
         <v>a_plausibility_1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5908,7 +5945,7 @@
         <v>164</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>163</v>
@@ -5918,7 +5955,7 @@
         <v>a_plausibility_2</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5933,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O75" s="10" t="s">
         <v>153</v>
@@ -5960,7 +5997,7 @@
         <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F76" t="s">
         <v>145</v>
@@ -5985,10 +6022,10 @@
         <v>1</v>
       </c>
       <c r="M76" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="N76" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="O76" s="10" t="s">
         <v>9</v>
@@ -6012,7 +6049,7 @@
         <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" t="s">
         <v>146</v>
@@ -6064,7 +6101,7 @@
         <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
         <v>149</v>
@@ -6116,7 +6153,7 @@
         <v>148</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F79" t="s">
         <v>154</v>
@@ -6168,7 +6205,7 @@
         <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
         <v>157</v>
@@ -6220,7 +6257,7 @@
         <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F81" t="s">
         <v>159</v>
@@ -6272,7 +6309,7 @@
         <v>148</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F82" t="s">
         <v>162</v>
@@ -6282,7 +6319,7 @@
         <v>p_uncertainty_5</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" s="4">
         <v>0</v>

--- a/www/odmap_dict.xlsx
+++ b/www/odmap_dict.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="296">
   <si>
     <t>section</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>Details on pre-selection of variables, if applicable</t>
-  </si>
-  <si>
-    <t>Model complexity and model settings</t>
   </si>
   <si>
     <t>m_complex</t>
@@ -1806,9 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1846,19 +1843,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>4</v>
@@ -1897,23 +1894,23 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(E2, "_", A2)</f>
         <v>o_title_1</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J2"/>
       <c r="K2">
@@ -1945,23 +1942,23 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
         <v>155</v>
       </c>
-      <c r="E3" t="s">
-        <v>156</v>
-      </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G43" si="1">CONCATENATE(E3, "_", A3)</f>
         <v>o_authorship_1</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J3"/>
       <c r="K3">
@@ -1977,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q3" t="s">
         <v>17</v>
@@ -2001,23 +1998,23 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
         <v>o_authorship_2</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4"/>
       <c r="K4">
@@ -2033,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" t="s">
         <v>17</v>
@@ -2073,7 +2070,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2120,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2159,23 +2156,23 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>o_taxon_1</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J7"/>
       <c r="K7">
@@ -2207,23 +2204,23 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>o_location_1</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8"/>
       <c r="K8">
@@ -2255,23 +2252,23 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>o_scale_1</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J9"/>
       <c r="K9">
@@ -2303,23 +2300,23 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
         <v>o_scale_2</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J10"/>
       <c r="K10">
@@ -2351,23 +2348,23 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
         <v>o_scale_3</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J11"/>
       <c r="K11">
@@ -2386,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q11" t="s">
         <v>17</v>
@@ -2407,23 +2404,23 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
         <v>o_scale_4</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J12"/>
       <c r="K12">
@@ -2455,26 +2452,26 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
         <v>o_scale_5</v>
       </c>
       <c r="H13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
         <v>267</v>
-      </c>
-      <c r="I13" t="s">
-        <v>251</v>
-      </c>
-      <c r="J13" t="s">
-        <v>268</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2505,10 +2502,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -2518,13 +2515,13 @@
         <v>o_bio_1</v>
       </c>
       <c r="H14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" t="s">
         <v>272</v>
-      </c>
-      <c r="I14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" t="s">
-        <v>273</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2555,26 +2552,26 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" t="s">
         <v>270</v>
-      </c>
-      <c r="F15" t="s">
-        <v>271</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>o_bio_2</v>
       </c>
       <c r="H15" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" t="s">
         <v>274</v>
-      </c>
-      <c r="I15" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" t="s">
-        <v>275</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2592,7 +2589,7 @@
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q15" t="s">
         <v>17</v>
@@ -2613,26 +2610,26 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" t="s">
         <v>261</v>
       </c>
-      <c r="E16" t="s">
-        <v>262</v>
-      </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>o_predictors_1</v>
       </c>
       <c r="H16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
         <v>263</v>
-      </c>
-      <c r="I16" t="s">
-        <v>251</v>
-      </c>
-      <c r="J16" t="s">
-        <v>264</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2663,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -2679,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2697,7 +2694,7 @@
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q17"/>
       <c r="R17">
@@ -2719,7 +2716,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -2732,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2766,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
@@ -2776,10 +2773,10 @@
         <v>o_algorithms_1</v>
       </c>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2813,23 +2810,23 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>o_algorithms_2</v>
       </c>
       <c r="H20" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" t="s">
         <v>279</v>
-      </c>
-      <c r="I20" t="s">
-        <v>251</v>
-      </c>
-      <c r="J20" t="s">
-        <v>280</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2873,10 +2870,10 @@
         <v>o_workflow_1</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2920,10 +2917,10 @@
         <v>o_software_1</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2938,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" t="s">
         <v>205</v>
-      </c>
-      <c r="P22" t="s">
-        <v>206</v>
       </c>
       <c r="Q22" t="s">
         <v>17</v>
@@ -2968,35 +2965,35 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>o_software_2</v>
       </c>
       <c r="H23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s">
         <v>282</v>
-      </c>
-      <c r="I23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>204</v>
-      </c>
-      <c r="P23" t="s">
-        <v>283</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
@@ -3023,35 +3020,35 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" t="str">
         <f>CONCATENATE(E24, "_", A24)</f>
         <v>o_software_3</v>
       </c>
       <c r="H24" t="s">
+        <v>284</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" t="s">
         <v>285</v>
-      </c>
-      <c r="I24" t="s">
-        <v>232</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>204</v>
-      </c>
-      <c r="P24" t="s">
-        <v>286</v>
       </c>
       <c r="Q24" t="s">
         <v>17</v>
@@ -3072,10 +3069,10 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -3088,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3106,7 +3103,7 @@
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q25" t="s">
         <v>17</v>
@@ -3127,10 +3124,10 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
@@ -3140,13 +3137,13 @@
         <v>d_bio_2</v>
       </c>
       <c r="H26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3177,10 +3174,10 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -3193,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J27"/>
       <c r="K27">
@@ -3215,7 +3212,7 @@
         <v>50</v>
       </c>
       <c r="Q27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -3233,10 +3230,10 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
         <v>24</v>
@@ -3246,10 +3243,10 @@
         <v>d_bio_4</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J28"/>
       <c r="K28">
@@ -3289,10 +3286,10 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
         <v>26</v>
@@ -3302,13 +3299,13 @@
         <v>d_bio_5</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3339,10 +3336,10 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" t="s">
         <v>27</v>
@@ -3352,10 +3349,10 @@
         <v>d_bio_6</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3392,23 +3389,23 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
         <v>d_bio_7</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3439,10 +3436,10 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -3455,7 +3452,7 @@
         <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3476,7 +3473,7 @@
         <v>62</v>
       </c>
       <c r="Q32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3494,10 +3491,10 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -3510,7 +3507,7 @@
         <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3531,7 +3528,7 @@
         <v>54</v>
       </c>
       <c r="Q33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3549,10 +3546,10 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
@@ -3565,7 +3562,7 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3586,7 +3583,7 @@
         <v>57</v>
       </c>
       <c r="Q34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3604,10 +3601,10 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -3620,7 +3617,7 @@
         <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3641,7 +3638,7 @@
         <v>60</v>
       </c>
       <c r="Q35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3659,10 +3656,10 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
         <v>61</v>
@@ -3672,10 +3669,10 @@
         <v>d_bio_12</v>
       </c>
       <c r="H36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3690,13 +3687,13 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P36" t="s">
         <v>62</v>
       </c>
       <c r="Q36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3730,7 +3727,7 @@
         <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J37"/>
       <c r="K37">
@@ -3778,7 +3775,7 @@
         <v>71</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J38"/>
       <c r="K38">
@@ -3826,7 +3823,7 @@
         <v>73</v>
       </c>
       <c r="I39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J39"/>
       <c r="K39">
@@ -3861,7 +3858,7 @@
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F40" t="s">
         <v>31</v>
@@ -3871,10 +3868,10 @@
         <v>d_pred_1</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J40"/>
       <c r="K40">
@@ -3893,7 +3890,7 @@
         <v>75</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q40" t="s">
         <v>17</v>
@@ -3917,7 +3914,7 @@
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F41" t="s">
         <v>24</v>
@@ -3930,7 +3927,7 @@
         <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J41"/>
       <c r="K41">
@@ -3973,20 +3970,20 @@
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_3</v>
       </c>
       <c r="H42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J42"/>
       <c r="K42">
@@ -4005,7 +4002,7 @@
         <v>75</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q42" t="s">
         <v>17</v>
@@ -4029,20 +4026,20 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
         <v>d_pred_4</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4060,7 +4057,7 @@
         <v>75</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q43" t="s">
         <v>17</v>
@@ -4084,20 +4081,20 @@
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44" t="str">
         <f>CONCATENATE(E44, "_", A44)</f>
         <v>d_pred_5</v>
       </c>
       <c r="H44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4131,20 +4128,20 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G45" t="str">
         <f>CONCATENATE(E45, "_", A45)</f>
         <v>d_pred_6</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4162,7 +4159,7 @@
         <v>75</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q45" t="s">
         <v>17</v>
@@ -4186,20 +4183,20 @@
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" ref="G46:G84" si="2">CONCATENATE(E46, "_", A46)</f>
         <v>d_pred_7</v>
       </c>
       <c r="H46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4233,7 +4230,7 @@
         <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
         <v>78</v>
@@ -4246,7 +4243,7 @@
         <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4280,7 +4277,7 @@
         <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -4293,7 +4290,7 @@
         <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J48"/>
       <c r="K48">
@@ -4315,7 +4312,7 @@
         <v>62</v>
       </c>
       <c r="Q48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4336,10 +4333,10 @@
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
@@ -4349,7 +4346,7 @@
         <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J49"/>
       <c r="K49">
@@ -4384,7 +4381,7 @@
         <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>24</v>
@@ -4397,7 +4394,7 @@
         <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J50"/>
       <c r="K50">
@@ -4419,7 +4416,7 @@
         <v>46</v>
       </c>
       <c r="Q50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -4440,20 +4437,20 @@
         <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
         <v>d_proj_2</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J51"/>
       <c r="K51">
@@ -4472,10 +4469,10 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q51" t="s">
         <v>187</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>188</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4496,20 +4493,20 @@
         <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
         <v>d_proj_3</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4527,10 +4524,10 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -4551,20 +4548,20 @@
         <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
         <v>d_proj_4</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -4582,10 +4579,10 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4606,20 +4603,20 @@
         <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
         <v>d_proj_5</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4653,7 +4650,7 @@
         <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" t="s">
         <v>83</v>
@@ -4666,7 +4663,7 @@
         <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J55"/>
       <c r="K55">
@@ -4701,7 +4698,7 @@
         <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s">
         <v>78</v>
@@ -4714,7 +4711,7 @@
         <v>85</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J56"/>
       <c r="K56">
@@ -4749,7 +4746,7 @@
         <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
         <v>86</v>
@@ -4762,7 +4759,7 @@
         <v>87</v>
       </c>
       <c r="I57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J57"/>
       <c r="K57">
@@ -4794,23 +4791,23 @@
         <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
         <v>193</v>
-      </c>
-      <c r="F58" t="s">
-        <v>194</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
         <v>m_settings_1</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J58"/>
       <c r="K58">
@@ -4842,23 +4839,23 @@
         <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
         <v>m_settings_2</v>
       </c>
       <c r="H59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J59"/>
       <c r="K59">
@@ -4874,10 +4871,10 @@
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q59" t="s">
         <v>17</v>
@@ -4901,7 +4898,7 @@
         <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F60" t="s">
         <v>93</v>
@@ -4914,7 +4911,7 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J60"/>
       <c r="K60">
@@ -4962,7 +4959,7 @@
         <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -4993,10 +4990,10 @@
         <v>89</v>
       </c>
       <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
         <v>95</v>
-      </c>
-      <c r="E62" t="s">
-        <v>96</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -5006,10 +5003,10 @@
         <v>m_complex_1</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5040,23 +5037,23 @@
         <v>89</v>
       </c>
       <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
         <v>97</v>
       </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
       <c r="F63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
         <v>m_estim_1</v>
       </c>
       <c r="H63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5087,23 +5084,23 @@
         <v>89</v>
       </c>
       <c r="D64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" t="s">
         <v>97</v>
       </c>
-      <c r="E64" t="s">
-        <v>98</v>
-      </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
         <v>m_estim_2</v>
       </c>
       <c r="H64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -5118,13 +5115,13 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
+        <v>227</v>
+      </c>
+      <c r="P64" t="s">
         <v>228</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>229</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>230</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -5142,23 +5139,23 @@
         <v>89</v>
       </c>
       <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" t="s">
         <v>97</v>
       </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
         <v>m_estim_3</v>
       </c>
       <c r="H65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -5189,23 +5186,23 @@
         <v>89</v>
       </c>
       <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" t="s">
         <v>100</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>101</v>
-      </c>
-      <c r="F66" t="s">
-        <v>102</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
         <v>m_selection_1</v>
       </c>
       <c r="H66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -5220,10 +5217,10 @@
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q66" t="s">
         <v>17</v>
@@ -5244,23 +5241,23 @@
         <v>89</v>
       </c>
       <c r="D67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" t="s">
         <v>100</v>
       </c>
-      <c r="E67" t="s">
-        <v>101</v>
-      </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
         <v>m_selection_2</v>
       </c>
       <c r="H67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -5291,23 +5288,23 @@
         <v>89</v>
       </c>
       <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
         <v>100</v>
       </c>
-      <c r="E68" t="s">
-        <v>101</v>
-      </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
         <v>m_selection_3</v>
       </c>
       <c r="H68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -5322,13 +5319,13 @@
         <v>1</v>
       </c>
       <c r="O68" t="s">
+        <v>151</v>
+      </c>
+      <c r="P68" t="s">
         <v>152</v>
       </c>
-      <c r="P68" t="s">
-        <v>153</v>
-      </c>
       <c r="Q68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5346,23 +5343,23 @@
         <v>89</v>
       </c>
       <c r="D69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" t="s">
         <v>106</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>107</v>
-      </c>
-      <c r="F69" t="s">
-        <v>108</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
         <v>m_depend_1</v>
       </c>
       <c r="H69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -5393,23 +5390,23 @@
         <v>89</v>
       </c>
       <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
         <v>106</v>
       </c>
-      <c r="E70" t="s">
-        <v>107</v>
-      </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
         <v>m_depend_2</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -5440,23 +5437,23 @@
         <v>89</v>
       </c>
       <c r="D71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
         <v>106</v>
       </c>
-      <c r="E71" t="s">
-        <v>107</v>
-      </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
         <v>m_depend_3</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -5487,23 +5484,23 @@
         <v>89</v>
       </c>
       <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
         <v>114</v>
       </c>
-      <c r="E72" t="s">
-        <v>115</v>
-      </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
         <v>m_threshold_1</v>
       </c>
       <c r="H72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5518,10 +5515,10 @@
         <v>1</v>
       </c>
       <c r="O72" t="s">
+        <v>219</v>
+      </c>
+      <c r="P72" t="s">
         <v>220</v>
-      </c>
-      <c r="P72" t="s">
-        <v>221</v>
       </c>
       <c r="Q72" t="s">
         <v>17</v>
@@ -5536,32 +5533,32 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
         <v>117</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>118</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>119</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>120</v>
-      </c>
-      <c r="F73" t="s">
-        <v>121</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
         <v>a_perform_1</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5576,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="O73" t="s">
+        <v>221</v>
+      </c>
+      <c r="P73" t="s">
         <v>222</v>
-      </c>
-      <c r="P73" t="s">
-        <v>223</v>
       </c>
       <c r="Q73"/>
       <c r="R73">
@@ -5592,32 +5589,32 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>118</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>119</v>
       </c>
-      <c r="E74" t="s">
-        <v>120</v>
-      </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
         <v>a_perform_2</v>
       </c>
       <c r="H74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5632,10 +5629,10 @@
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q74"/>
       <c r="R74">
@@ -5648,32 +5645,32 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>118</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>119</v>
       </c>
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
         <v>a_perform_3</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5688,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="O75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q75"/>
       <c r="R75">
@@ -5704,29 +5701,29 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
         <v>117</v>
       </c>
-      <c r="C76" t="s">
-        <v>118</v>
-      </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
         <v>a_plausibility_1</v>
       </c>
       <c r="H76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5751,47 +5748,47 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
         <v>a_plausibility_2</v>
       </c>
       <c r="H77" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>216</v>
+      </c>
+      <c r="P77" t="s">
         <v>238</v>
-      </c>
-      <c r="I77" t="s">
-        <v>232</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77" t="s">
-        <v>217</v>
-      </c>
-      <c r="P77" t="s">
-        <v>239</v>
       </c>
       <c r="Q77"/>
       <c r="R77">
@@ -5804,29 +5801,29 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
         <v>128</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>129</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
         <v>130</v>
-      </c>
-      <c r="E78" t="s">
-        <v>198</v>
-      </c>
-      <c r="F78" t="s">
-        <v>131</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
         <v>p_output_1</v>
       </c>
       <c r="H78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5841,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="O78" t="s">
+        <v>225</v>
+      </c>
+      <c r="P78" t="s">
         <v>226</v>
-      </c>
-      <c r="P78" t="s">
-        <v>227</v>
       </c>
       <c r="Q78" t="s">
         <v>6</v>
@@ -5859,29 +5856,29 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
         <v>128</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>129</v>
       </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
         <v>p_output_2</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -5906,47 +5903,47 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
         <v>128</v>
       </c>
-      <c r="C80" t="s">
-        <v>129</v>
-      </c>
       <c r="D80" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
         <v>134</v>
-      </c>
-      <c r="E80" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" t="s">
-        <v>135</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
         <v>p_uncertainty_1</v>
       </c>
       <c r="H80" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" t="s">
+        <v>231</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
         <v>136</v>
       </c>
-      <c r="I80" t="s">
-        <v>232</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>137</v>
-      </c>
-      <c r="P80" t="s">
-        <v>138</v>
       </c>
       <c r="Q80"/>
       <c r="R80">
@@ -5959,47 +5956,47 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
         <v>128</v>
       </c>
-      <c r="C81" t="s">
-        <v>129</v>
-      </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v>p_uncertainty_2</v>
       </c>
       <c r="H81" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" t="s">
+        <v>231</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="s">
         <v>140</v>
-      </c>
-      <c r="I81" t="s">
-        <v>232</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81" t="s">
-        <v>137</v>
-      </c>
-      <c r="P81" t="s">
-        <v>141</v>
       </c>
       <c r="Q81"/>
       <c r="R81">
@@ -6012,29 +6009,29 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
         <v>128</v>
       </c>
-      <c r="C82" t="s">
-        <v>129</v>
-      </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
         <v>p_uncertainty_3</v>
       </c>
       <c r="H82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -6059,47 +6056,47 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
         <v>128</v>
       </c>
-      <c r="C83" t="s">
-        <v>129</v>
-      </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
         <v>p_uncertainty_4</v>
       </c>
       <c r="H83" t="s">
+        <v>142</v>
+      </c>
+      <c r="I83" t="s">
+        <v>231</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>136</v>
+      </c>
+      <c r="P83" t="s">
         <v>143</v>
-      </c>
-      <c r="I83" t="s">
-        <v>232</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83" t="s">
-        <v>137</v>
-      </c>
-      <c r="P83" t="s">
-        <v>144</v>
       </c>
       <c r="Q83"/>
       <c r="R83">
@@ -6112,29 +6109,29 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="s">
         <v>128</v>
       </c>
-      <c r="C84" t="s">
-        <v>129</v>
-      </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
         <v>p_uncertainty_5</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K84">
         <v>0</v>
